--- a/secure/26e-Jari.xlsx
+++ b/secure/26e-Jari.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Jari-726744</t>
+    <t>26e-Jari-507548</t>
   </si>
   <si>
-    <t>26e-Jari-742193</t>
+    <t>26e-Jari-930592</t>
   </si>
   <si>
-    <t>26e-Jari-389973</t>
+    <t>26e-Jari-605376</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F26e22e8"/>
+        <fgColor rgb="Ff5227b7"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XJ503"/>
+  <dimension ref="A1:UT503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1075,14 +1075,11 @@
       </c>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="1:284" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>-0.588</v>
       </c>
       <c r="M105" s="4"/>
-      <c r="JX105" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -2038,11 +2035,14 @@
       </c>
       <c r="M264" s="4"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:335" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>0.052</v>
       </c>
       <c r="M265" s="4"/>
+      <c r="LW265" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
@@ -2266,11 +2266,14 @@
       </c>
       <c r="M302" s="4"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:566" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>0.204</v>
       </c>
       <c r="M303" s="4"/>
+      <c r="UT303" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
@@ -2344,14 +2347,11 @@
       </c>
       <c r="M315" s="4"/>
     </row>
-    <row r="316" spans="1:634" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>0.256</v>
       </c>
       <c r="M316" s="4"/>
-      <c r="XJ316" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
@@ -3079,11 +3079,14 @@
       </c>
       <c r="M437" s="4"/>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:522" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>0.744</v>
       </c>
       <c r="M438" s="4"/>
+      <c r="TB438" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
@@ -3343,14 +3346,11 @@
       </c>
       <c r="M481" s="4"/>
     </row>
-    <row r="482" spans="1:532" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>0.92</v>
       </c>
       <c r="M482" s="4"/>
-      <c r="TL482" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
